--- a/static/excel/업로드양식.xlsx
+++ b/static/excel/업로드양식.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\master\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B902B1E-2C84-4D73-8789-7D718246E337}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EBA3F37-1807-4DC3-93C1-C3EC75060590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="1065" windowWidth="18435" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유의사항" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t>ID</t>
   </si>
@@ -264,6 +264,10 @@
   </si>
   <si>
     <t xml:space="preserve">   ※ 직원 관리자(Superuser)와는 다릅니다. 직원 관리자 추가 및 수정은 Admin 페이지에서 진행해주세요.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최상위관리자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +275,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +313,12 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -331,12 +341,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -480,7 +491,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D74A1061-07B2-4F8B-BD7A-AF5E45AEDB23}" name="fa" displayName="fa" ref="A1:AO2" insertRow="1" totalsRowShown="0" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D74A1061-07B2-4F8B-BD7A-AF5E45AEDB23}" name="fa" displayName="fa" ref="A1:AO2" totalsRowShown="0" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="A1:AO2" xr:uid="{D74A1061-07B2-4F8B-BD7A-AF5E45AEDB23}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{86FA6536-69C9-45C2-9F44-9ED781DADAF2}" name="성명" dataDxfId="40" dataCellStyle="표준 2"/>
@@ -537,9 +548,7 @@
     <tableColumn id="2" xr3:uid="{D75E4722-FE32-4719-B9EA-E6E6C7167F56}" name="성명">
       <calculatedColumnFormula>_xlfn.XLOOKUP(관리[[#This Row],[사번]],fa[사원번호],fa[성명],"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{81AC1BA1-E9AB-49B6-9E02-6EA134F9FCBF}" name="등급">
-      <calculatedColumnFormula>IF(관리[[#This Row],[사번]]&gt;0,"관리자")</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="3" xr3:uid="{81AC1BA1-E9AB-49B6-9E02-6EA134F9FCBF}" name="등급"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -835,7 +844,7 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -887,9 +896,7 @@
   </sheetPr>
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1050,8 +1057,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
+    <row r="2" spans="1:41" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -1133,9 +1140,8 @@
         <f>_xlfn.XLOOKUP(관리[[#This Row],[사번]],fa[사원번호],fa[성명],"")</f>
         <v/>
       </c>
-      <c r="C2" t="str">
-        <f>IF(관리[[#This Row],[사번]]&gt;0,"관리자")</f>
-        <v>관리자</v>
+      <c r="C2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1146,9 +1152,8 @@
         <f>_xlfn.XLOOKUP(관리[[#This Row],[사번]],fa[사원번호],fa[성명],"")</f>
         <v/>
       </c>
-      <c r="C3" t="str">
-        <f>IF(관리[[#This Row],[사번]]&gt;0,"관리자")</f>
-        <v>관리자</v>
+      <c r="C3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1164,9 +1169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1233,7 +1236,7 @@
         <v/>
       </c>
       <c r="E2" t="str" cm="1">
-        <f t="array" ref="E2">IF(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),관리[사번],관리[등급],"")="관리자","Admin",IF(_xlfn.ANCHORARRAY(F2)="재직","Basic","Inactive"))</f>
+        <f t="array" ref="E2">IF(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),관리[사번],관리[등급],"")="최상위관리자","main_admin",IF(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),관리[사번],관리[등급],"")="중간관리자","sub_admin",(IF(_xlfn.ANCHORARRAY(F2)="재직","Basic","Inactive"))))</f>
         <v>Inactive</v>
       </c>
       <c r="F2" t="str" cm="1">
@@ -1266,7 +1269,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7hbcTOJntIRYYrkdaOKytMwbCp5pLjuWawv/iqrdBeXo37pIK5RjZb6xuPFXdW8Zi8rEDzKf8IZqHSh8SRFAqQ==" saltValue="klevPO6DNTo3ixcwiMrnLA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <autoFilter ref="A1:L3333" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/static/excel/업로드양식.xlsx
+++ b/static/excel/업로드양식.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EBA3F37-1807-4DC3-93C1-C3EC75060590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4FF9544-BDE9-4BC5-ABE4-7B0CAFD9EC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유의사항" sheetId="4" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -268,6 +268,10 @@
   </si>
   <si>
     <t>최상위관리자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업가족</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +357,10 @@
     <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{85D98B4D-8E53-4714-8A84-5E229C6B873C}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -494,59 +501,62 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D74A1061-07B2-4F8B-BD7A-AF5E45AEDB23}" name="fa" displayName="fa" ref="A1:AO2" totalsRowShown="0" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="A1:AO2" xr:uid="{D74A1061-07B2-4F8B-BD7A-AF5E45AEDB23}"/>
   <tableColumns count="41">
-    <tableColumn id="1" xr3:uid="{86FA6536-69C9-45C2-9F44-9ED781DADAF2}" name="성명" dataDxfId="40" dataCellStyle="표준 2"/>
-    <tableColumn id="2" xr3:uid="{30DBE2BB-B3DF-465C-B777-FA3D65CB36E7}" name="사원번호" dataDxfId="39" dataCellStyle="표준 2"/>
-    <tableColumn id="3" xr3:uid="{B04C09C3-1E8A-4904-BB6E-57C412F95A15}" name="재직여부" dataDxfId="38" dataCellStyle="표준 2"/>
-    <tableColumn id="4" xr3:uid="{0921C363-5F64-43CE-AE8A-3117F8570F3E}" name="영업가족명" dataDxfId="37" dataCellStyle="표준 2"/>
-    <tableColumn id="5" xr3:uid="{9CFDA35B-1CE1-4195-91CC-AA40F3299F99}" name="영업가족구분" dataDxfId="36" dataCellStyle="표준 2"/>
-    <tableColumn id="6" xr3:uid="{27D18000-9A51-4493-A11B-017C5A945A4C}" name="사용등급" dataDxfId="35" dataCellStyle="표준 2"/>
-    <tableColumn id="7" xr3:uid="{140E5417-753E-4047-B6C7-98EA3B44295E}" name="처리권한" dataDxfId="34" dataCellStyle="표준 2"/>
-    <tableColumn id="8" xr3:uid="{4B075BE9-2BAA-4E9E-8221-2B8686A17B63}" name="직급" dataDxfId="33" dataCellStyle="표준 2"/>
-    <tableColumn id="9" xr3:uid="{B499BF19-2B79-46C2-90ED-04815E9690C9}" name="직책" dataDxfId="32" dataCellStyle="표준 2"/>
-    <tableColumn id="10" xr3:uid="{8CF1307F-65A6-4286-9138-D0BD6AE40587}" name="직무" dataDxfId="31" dataCellStyle="표준 2"/>
-    <tableColumn id="11" xr3:uid="{01A51918-AFD8-49B7-88B1-37524A375F66}" name="영업가족부서위치" dataDxfId="30" dataCellStyle="표준 2"/>
-    <tableColumn id="12" xr3:uid="{EAAD3F47-19F0-450F-83F9-169308BC286D}" name="영업가족부서코드" dataDxfId="29" dataCellStyle="표준 2"/>
-    <tableColumn id="13" xr3:uid="{26F2BBD7-2608-4C6A-984B-CF3F8937B5D1}" name="영업가족부서" dataDxfId="28" dataCellStyle="표준 2"/>
-    <tableColumn id="14" xr3:uid="{BB85756E-76CF-4FB4-9C26-CD50137EB7F0}" name="소속부서" dataDxfId="27" dataCellStyle="표준 2"/>
-    <tableColumn id="15" xr3:uid="{78730CC0-0E16-4FC7-A69B-034299260286}" name="금융사고여부" dataDxfId="26" dataCellStyle="표준 2"/>
-    <tableColumn id="16" xr3:uid="{21D5EE0F-07B9-4D9F-A8D4-5A0630010785}" name="유자격(사용인)" dataDxfId="25" dataCellStyle="표준 2"/>
-    <tableColumn id="17" xr3:uid="{068FB296-17A5-46AC-8F82-CE809088F802}" name="휴대전화." dataDxfId="24" dataCellStyle="표준 2"/>
-    <tableColumn id="18" xr3:uid="{035C923B-EAB2-46C3-8E00-63F1BDCD780C}" name="회사전화" dataDxfId="23" dataCellStyle="표준 2"/>
-    <tableColumn id="19" xr3:uid="{176AEF23-F298-45AD-9A1F-739A60E9C738}" name="메일주소" dataDxfId="22" dataCellStyle="표준 2"/>
-    <tableColumn id="20" xr3:uid="{59CEA1A4-0BCD-45A2-8EDF-221AF5AC4631}" name="신분증" dataDxfId="21" dataCellStyle="표준 2"/>
-    <tableColumn id="21" xr3:uid="{851F0A2C-E30F-46E9-BB51-F254A0522AF0}" name="통장사본" dataDxfId="20" dataCellStyle="표준 2"/>
-    <tableColumn id="22" xr3:uid="{D85D570F-50C8-41F6-B2CD-5983493D5DFF}" name="위촉계약서" dataDxfId="19" dataCellStyle="표준 2"/>
-    <tableColumn id="23" xr3:uid="{5C0D05EF-CC4A-4873-BCDF-4B247A869FE0}" name="E클린" dataDxfId="18" dataCellStyle="표준 2"/>
-    <tableColumn id="24" xr3:uid="{18B81226-9093-4C8D-B078-845C6D6B7612}" name="E클린(미동의)" dataDxfId="17" dataCellStyle="표준 2"/>
-    <tableColumn id="25" xr3:uid="{7D570653-E9CC-43A7-A84E-5BF5D2FA3115}" name="사진" dataDxfId="16" dataCellStyle="표준 2"/>
-    <tableColumn id="26" xr3:uid="{465C6FAF-1A30-401F-8896-F5A96E76D409}" name="지점효율신청서" dataDxfId="15" dataCellStyle="표준 2"/>
-    <tableColumn id="27" xr3:uid="{3A960143-F69E-4CDE-9807-6C199B5A008D}" name="E클린(미동의)사유" dataDxfId="14" dataCellStyle="표준 2"/>
-    <tableColumn id="28" xr3:uid="{929FCA42-BEA1-41E3-885E-190DB2DD8F56}" name="경력여부" dataDxfId="13" dataCellStyle="표준 2"/>
-    <tableColumn id="29" xr3:uid="{C63324AD-D5FC-44A7-A364-C741B4964C1D}" name="생년월일" dataDxfId="12" dataCellStyle="표준 2"/>
-    <tableColumn id="30" xr3:uid="{09F1C48B-FBE8-4E34-8508-8AC62AB1409C}" name="생일구분" dataDxfId="11" dataCellStyle="표준 2"/>
-    <tableColumn id="31" xr3:uid="{F5F3939C-6C89-4ADA-960F-EE75463D6350}" name="명세보기" dataDxfId="10" dataCellStyle="표준 2"/>
-    <tableColumn id="32" xr3:uid="{51E5DADA-D51D-4BE2-98B0-6B45E007EF35}" name="입문과정수료여부" dataDxfId="9" dataCellStyle="표준 2"/>
-    <tableColumn id="33" xr3:uid="{C026F133-D47D-40A1-AF55-5ECCDF156D44}" name="입사일자(사원)" dataDxfId="8" dataCellStyle="표준 2"/>
-    <tableColumn id="34" xr3:uid="{3F61E426-6B46-4E78-9A65-4F0C9A2D8B69}" name="퇴사일자(사원)" dataDxfId="7" dataCellStyle="표준 2"/>
-    <tableColumn id="35" xr3:uid="{3AAB497C-A028-4EE2-83C3-DD256B1A0705}" name="등록일자(사원)" dataDxfId="6" dataCellStyle="표준 2"/>
-    <tableColumn id="36" xr3:uid="{AD7EC97F-6F90-402F-BE74-13F508C90A49}" name="금소법교육이수" dataDxfId="5" dataCellStyle="표준 2"/>
-    <tableColumn id="37" xr3:uid="{CBB62D51-D070-46B8-92F9-437938322E47}" name="직무수행교육이수" dataDxfId="4" dataCellStyle="표준 2"/>
-    <tableColumn id="38" xr3:uid="{EEB9C9E6-DF19-4286-A7CA-4FC88F89A0F7}" name="외국인여부" dataDxfId="3" dataCellStyle="표준 2"/>
-    <tableColumn id="39" xr3:uid="{1B84197A-B530-4792-8475-787FF8120BE0}" name="외국인성명" dataDxfId="2" dataCellStyle="표준 2"/>
-    <tableColumn id="40" xr3:uid="{043DBB1D-E623-49A1-9773-9E95DEB449E3}" name="국적" dataDxfId="1" dataCellStyle="표준 2"/>
-    <tableColumn id="41" xr3:uid="{3B1892BC-73B0-4E61-81BC-ED209742D00B}" name="체류코드" dataDxfId="0" dataCellStyle="표준 2"/>
+    <tableColumn id="1" xr3:uid="{86FA6536-69C9-45C2-9F44-9ED781DADAF2}" name="성명" dataDxfId="41" dataCellStyle="표준 2"/>
+    <tableColumn id="2" xr3:uid="{30DBE2BB-B3DF-465C-B777-FA3D65CB36E7}" name="사원번호" dataDxfId="40" dataCellStyle="표준 2"/>
+    <tableColumn id="3" xr3:uid="{B04C09C3-1E8A-4904-BB6E-57C412F95A15}" name="재직여부" dataDxfId="39" dataCellStyle="표준 2"/>
+    <tableColumn id="4" xr3:uid="{0921C363-5F64-43CE-AE8A-3117F8570F3E}" name="영업가족명" dataDxfId="38" dataCellStyle="표준 2"/>
+    <tableColumn id="5" xr3:uid="{9CFDA35B-1CE1-4195-91CC-AA40F3299F99}" name="영업가족구분" dataDxfId="37" dataCellStyle="표준 2"/>
+    <tableColumn id="6" xr3:uid="{27D18000-9A51-4493-A11B-017C5A945A4C}" name="사용등급" dataDxfId="36" dataCellStyle="표준 2"/>
+    <tableColumn id="7" xr3:uid="{140E5417-753E-4047-B6C7-98EA3B44295E}" name="처리권한" dataDxfId="35" dataCellStyle="표준 2"/>
+    <tableColumn id="8" xr3:uid="{4B075BE9-2BAA-4E9E-8221-2B8686A17B63}" name="직급" dataDxfId="34" dataCellStyle="표준 2"/>
+    <tableColumn id="9" xr3:uid="{B499BF19-2B79-46C2-90ED-04815E9690C9}" name="직책" dataDxfId="33" dataCellStyle="표준 2"/>
+    <tableColumn id="10" xr3:uid="{8CF1307F-65A6-4286-9138-D0BD6AE40587}" name="직무" dataDxfId="32" dataCellStyle="표준 2"/>
+    <tableColumn id="11" xr3:uid="{01A51918-AFD8-49B7-88B1-37524A375F66}" name="영업가족부서위치" dataDxfId="31" dataCellStyle="표준 2"/>
+    <tableColumn id="12" xr3:uid="{EAAD3F47-19F0-450F-83F9-169308BC286D}" name="영업가족부서코드" dataDxfId="30" dataCellStyle="표준 2"/>
+    <tableColumn id="13" xr3:uid="{26F2BBD7-2608-4C6A-984B-CF3F8937B5D1}" name="영업가족부서" dataDxfId="29" dataCellStyle="표준 2"/>
+    <tableColumn id="14" xr3:uid="{BB85756E-76CF-4FB4-9C26-CD50137EB7F0}" name="소속부서" dataDxfId="28" dataCellStyle="표준 2"/>
+    <tableColumn id="15" xr3:uid="{78730CC0-0E16-4FC7-A69B-034299260286}" name="금융사고여부" dataDxfId="27" dataCellStyle="표준 2"/>
+    <tableColumn id="16" xr3:uid="{21D5EE0F-07B9-4D9F-A8D4-5A0630010785}" name="유자격(사용인)" dataDxfId="26" dataCellStyle="표준 2"/>
+    <tableColumn id="17" xr3:uid="{068FB296-17A5-46AC-8F82-CE809088F802}" name="휴대전화." dataDxfId="25" dataCellStyle="표준 2"/>
+    <tableColumn id="18" xr3:uid="{035C923B-EAB2-46C3-8E00-63F1BDCD780C}" name="회사전화" dataDxfId="24" dataCellStyle="표준 2"/>
+    <tableColumn id="19" xr3:uid="{176AEF23-F298-45AD-9A1F-739A60E9C738}" name="메일주소" dataDxfId="23" dataCellStyle="표준 2"/>
+    <tableColumn id="20" xr3:uid="{59CEA1A4-0BCD-45A2-8EDF-221AF5AC4631}" name="신분증" dataDxfId="22" dataCellStyle="표준 2"/>
+    <tableColumn id="21" xr3:uid="{851F0A2C-E30F-46E9-BB51-F254A0522AF0}" name="통장사본" dataDxfId="21" dataCellStyle="표준 2"/>
+    <tableColumn id="22" xr3:uid="{D85D570F-50C8-41F6-B2CD-5983493D5DFF}" name="위촉계약서" dataDxfId="20" dataCellStyle="표준 2"/>
+    <tableColumn id="23" xr3:uid="{5C0D05EF-CC4A-4873-BCDF-4B247A869FE0}" name="E클린" dataDxfId="19" dataCellStyle="표준 2"/>
+    <tableColumn id="24" xr3:uid="{18B81226-9093-4C8D-B078-845C6D6B7612}" name="E클린(미동의)" dataDxfId="18" dataCellStyle="표준 2"/>
+    <tableColumn id="25" xr3:uid="{7D570653-E9CC-43A7-A84E-5BF5D2FA3115}" name="사진" dataDxfId="17" dataCellStyle="표준 2"/>
+    <tableColumn id="26" xr3:uid="{465C6FAF-1A30-401F-8896-F5A96E76D409}" name="지점효율신청서" dataDxfId="16" dataCellStyle="표준 2"/>
+    <tableColumn id="27" xr3:uid="{3A960143-F69E-4CDE-9807-6C199B5A008D}" name="E클린(미동의)사유" dataDxfId="15" dataCellStyle="표준 2"/>
+    <tableColumn id="28" xr3:uid="{929FCA42-BEA1-41E3-885E-190DB2DD8F56}" name="경력여부" dataDxfId="14" dataCellStyle="표준 2"/>
+    <tableColumn id="29" xr3:uid="{C63324AD-D5FC-44A7-A364-C741B4964C1D}" name="생년월일" dataDxfId="13" dataCellStyle="표준 2"/>
+    <tableColumn id="30" xr3:uid="{09F1C48B-FBE8-4E34-8508-8AC62AB1409C}" name="생일구분" dataDxfId="12" dataCellStyle="표준 2"/>
+    <tableColumn id="31" xr3:uid="{F5F3939C-6C89-4ADA-960F-EE75463D6350}" name="명세보기" dataDxfId="11" dataCellStyle="표준 2"/>
+    <tableColumn id="32" xr3:uid="{51E5DADA-D51D-4BE2-98B0-6B45E007EF35}" name="입문과정수료여부" dataDxfId="10" dataCellStyle="표준 2"/>
+    <tableColumn id="33" xr3:uid="{C026F133-D47D-40A1-AF55-5ECCDF156D44}" name="입사일자(사원)" dataDxfId="9" dataCellStyle="표준 2"/>
+    <tableColumn id="34" xr3:uid="{3F61E426-6B46-4E78-9A65-4F0C9A2D8B69}" name="퇴사일자(사원)" dataDxfId="8" dataCellStyle="표준 2"/>
+    <tableColumn id="35" xr3:uid="{3AAB497C-A028-4EE2-83C3-DD256B1A0705}" name="등록일자(사원)" dataDxfId="7" dataCellStyle="표준 2"/>
+    <tableColumn id="36" xr3:uid="{AD7EC97F-6F90-402F-BE74-13F508C90A49}" name="금소법교육이수" dataDxfId="6" dataCellStyle="표준 2"/>
+    <tableColumn id="37" xr3:uid="{CBB62D51-D070-46B8-92F9-437938322E47}" name="직무수행교육이수" dataDxfId="5" dataCellStyle="표준 2"/>
+    <tableColumn id="38" xr3:uid="{EEB9C9E6-DF19-4286-A7CA-4FC88F89A0F7}" name="외국인여부" dataDxfId="4" dataCellStyle="표준 2"/>
+    <tableColumn id="39" xr3:uid="{1B84197A-B530-4792-8475-787FF8120BE0}" name="외국인성명" dataDxfId="3" dataCellStyle="표준 2"/>
+    <tableColumn id="40" xr3:uid="{043DBB1D-E623-49A1-9773-9E95DEB449E3}" name="국적" dataDxfId="2" dataCellStyle="표준 2"/>
+    <tableColumn id="41" xr3:uid="{3B1892BC-73B0-4E61-81BC-ED209742D00B}" name="체류코드" dataDxfId="1" dataCellStyle="표준 2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{90C39E61-FE22-48AB-AFB1-C0136E23A116}" name="관리" displayName="관리" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3" xr:uid="{90C39E61-FE22-48AB-AFB1-C0136E23A116}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{90C39E61-FE22-48AB-AFB1-C0136E23A116}" name="관리" displayName="관리" ref="A1:D3" totalsRowShown="0">
+  <autoFilter ref="A1:D3" xr:uid="{90C39E61-FE22-48AB-AFB1-C0136E23A116}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{DC5C9EB5-E452-4795-906D-45F3E6125814}" name="사번"/>
     <tableColumn id="2" xr3:uid="{D75E4722-FE32-4719-B9EA-E6E6C7167F56}" name="성명">
       <calculatedColumnFormula>_xlfn.XLOOKUP(관리[[#This Row],[사번]],fa[사원번호],fa[성명],"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{87339966-57A2-4EA3-82A4-10E0728FEB7C}" name="영업가족" dataDxfId="0">
+      <calculatedColumnFormula>_xlfn.XLOOKUP(관리[[#This Row],[사번]],fa[사원번호],fa[영업가족명],"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{81AC1BA1-E9AB-49B6-9E02-6EA134F9FCBF}" name="등급"/>
   </tableColumns>
@@ -896,7 +906,7 @@
   </sheetPr>
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1115,13 +1125,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D985CC97-621D-42F7-BDA5-BF7A48CC5C95}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -1129,10 +1141,13 @@
         <v>49</v>
       </c>
       <c r="C1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1930695</v>
       </c>
@@ -1140,11 +1155,15 @@
         <f>_xlfn.XLOOKUP(관리[[#This Row],[사번]],fa[사원번호],fa[성명],"")</f>
         <v/>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="str">
+        <f>_xlfn.XLOOKUP(관리[[#This Row],[사번]],fa[사원번호],fa[영업가족명],"")</f>
+        <v/>
+      </c>
+      <c r="D2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1930361</v>
       </c>
@@ -1152,7 +1171,11 @@
         <f>_xlfn.XLOOKUP(관리[[#This Row],[사번]],fa[사원번호],fa[성명],"")</f>
         <v/>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="str">
+        <f>_xlfn.XLOOKUP(관리[[#This Row],[사번]],fa[사원번호],fa[영업가족명],"")</f>
+        <v/>
+      </c>
+      <c r="D3" t="s">
         <v>63</v>
       </c>
     </row>

--- a/static/excel/업로드양식.xlsx
+++ b/static/excel/업로드양식.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coding\django_ma\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4FF9544-BDE9-4BC5-ABE4-7B0CAFD9EC41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E380ED1-469B-4216-B401-2331AFEBEF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="유의사항" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="업로드" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">업로드!$A$1:$L$3333</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">업로드!$A$1:$N$3333</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>ID</t>
   </si>
@@ -272,6 +272,14 @@
   </si>
   <si>
     <t>영업가족</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Channel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +506,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D74A1061-07B2-4F8B-BD7A-AF5E45AEDB23}" name="fa" displayName="fa" ref="A1:AO2" totalsRowShown="0" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D74A1061-07B2-4F8B-BD7A-AF5E45AEDB23}" name="fa" displayName="fa" ref="A1:AO2" insertRow="1" totalsRowShown="0" headerRowCellStyle="표준 2" dataCellStyle="표준 2">
   <autoFilter ref="A1:AO2" xr:uid="{D74A1061-07B2-4F8B-BD7A-AF5E45AEDB23}"/>
   <tableColumns count="41">
     <tableColumn id="1" xr3:uid="{86FA6536-69C9-45C2-9F44-9ED781DADAF2}" name="성명" dataDxfId="41" dataCellStyle="표준 2"/>
@@ -906,7 +914,9 @@
   </sheetPr>
   <dimension ref="A1:AO2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1127,7 +1137,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D985CC97-621D-42F7-BDA5-BF7A48CC5C95}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -1190,24 +1200,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5" customWidth="1"/>
     <col min="3" max="3" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="5" max="6" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="13" max="13" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1218,34 +1229,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" cm="1">
         <f t="array" ref="A2">_xlfn.UNIQUE(fa[사원번호])</f>
         <v>0</v>
@@ -1254,45 +1271,53 @@
         <f t="array" ref="C2">IF(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[성명],"")=0,"",_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[성명],""))</f>
         <v/>
       </c>
-      <c r="D2" t="str" cm="1">
-        <f t="array" ref="D2">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[영업가족명],"")</f>
+      <c r="D2" t="b" cm="1">
+        <f t="array" ref="D2">IF(_xlfn.ANCHORARRAY(A2)&gt;0,"MA부문")</f>
+        <v>0</v>
+      </c>
+      <c r="E2" t="str" cm="1">
+        <f t="array" ref="E2">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[영업가족명],"")</f>
         <v/>
       </c>
-      <c r="E2" t="str" cm="1">
-        <f t="array" ref="E2">IF(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),관리[사번],관리[등급],"")="최상위관리자","main_admin",IF(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),관리[사번],관리[등급],"")="중간관리자","sub_admin",(IF(_xlfn.ANCHORARRAY(F2)="재직","Basic","Inactive"))))</f>
+      <c r="F2" t="str" cm="1">
+        <f t="array" ref="F2">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[영업가족명],"")</f>
+        <v/>
+      </c>
+      <c r="G2" t="str" cm="1">
+        <f t="array" ref="G2">IF(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),관리[사번],관리[등급],"")="최상위관리자","main_admin",IF(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),관리[사번],관리[등급],"")="중간관리자","sub_admin",(IF(_xlfn.ANCHORARRAY(H2)="재직","Basic","Inactive"))))</f>
         <v>Inactive</v>
       </c>
-      <c r="F2" t="str" cm="1">
-        <f t="array" ref="F2">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[재직여부],"")</f>
+      <c r="H2" t="str" cm="1">
+        <f t="array" ref="H2">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[재직여부],"")</f>
         <v/>
       </c>
-      <c r="G2" t="b" cm="1">
-        <f t="array" ref="G2">IF(_xlfn.ANCHORARRAY(A2),FALSE)</f>
+      <c r="I2" t="b" cm="1">
+        <f t="array" ref="I2">IF(_xlfn.ANCHORARRAY(A2),FALSE)</f>
         <v>0</v>
       </c>
-      <c r="H2" t="b" cm="1">
-        <f t="array" ref="H2">IF(_xlfn.ANCHORARRAY(F2)="재직",TRUE,FALSE)</f>
+      <c r="J2" t="b" cm="1">
+        <f t="array" ref="J2">IF(_xlfn.ANCHORARRAY(H2)="재직",TRUE,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I2" t="str" cm="1">
-        <f t="array" ref="I2">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[유자격(사용인)],"")</f>
+      <c r="K2" t="str" cm="1">
+        <f t="array" ref="K2">_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[유자격(사용인)],"")</f>
         <v/>
       </c>
-      <c r="J2" t="str" cm="1">
-        <f t="array" ref="J2">IF(TEXT(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[생년월일],""),"####-##-##")="--","",TEXT(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[생년월일],""),"####-##-##"))</f>
+      <c r="L2" t="str" cm="1">
+        <f t="array" ref="L2">IF(TEXT(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[생년월일],""),"####-##-##")="--","",TEXT(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[생년월일],""),"####-##-##"))</f>
         <v/>
       </c>
-      <c r="K2" t="str" cm="1">
-        <f t="array" ref="K2">SUBSTITUTE(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[입사일자(사원)],""),"/","-")</f>
+      <c r="M2" t="str" cm="1">
+        <f t="array" ref="M2">SUBSTITUTE(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[입사일자(사원)],""),"/","-")</f>
         <v/>
       </c>
-      <c r="L2" t="str" cm="1">
-        <f t="array" ref="L2">SUBSTITUTE(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[퇴사일자(사원)],""),"/","-")</f>
+      <c r="N2" t="str" cm="1">
+        <f t="array" ref="N2">SUBSTITUTE(_xlfn.XLOOKUP(_xlfn.ANCHORARRAY(A2),fa[사원번호],fa[퇴사일자(사원)],""),"/","-")</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L3333" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N3333" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
